--- a/f_hats_new.xlsx
+++ b/f_hats_new.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="f_hats" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>n | z</t>
   </si>
@@ -29,6 +30,33 @@
   </si>
   <si>
     <t>STD NORMAL</t>
+  </si>
+  <si>
+    <t>n=5</t>
+  </si>
+  <si>
+    <t>n=10</t>
+  </si>
+  <si>
+    <t>n=30</t>
+  </si>
+  <si>
+    <t>n=100</t>
+  </si>
+  <si>
+    <t>n=150</t>
+  </si>
+  <si>
+    <t>n=50</t>
+  </si>
+  <si>
+    <t>n=250</t>
+  </si>
+  <si>
+    <t>n=500</t>
+  </si>
+  <si>
+    <t>n/j</t>
   </si>
 </sst>
 </file>
@@ -171,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +379,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -512,8 +546,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -674,7 +709,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -683,10 +718,8 @@
             <c:v>n=5</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -706,6 +739,40 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="1"/>
+            <c:val val="6.3600000000000018E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>f_hats!$B$1:$H$1</c:f>
@@ -766,7 +833,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -775,7 +842,7 @@
             <c:v>CDF</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1410,7 +1477,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1420,11 +1487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="736475992"/>
-        <c:axId val="736476384"/>
+        <c:axId val="550716312"/>
+        <c:axId val="558084392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="736475992"/>
+        <c:axId val="550716312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,12 +1548,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="736476384"/>
+        <c:crossAx val="558084392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="736476384"/>
+        <c:axId val="558084392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,7 +1610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="736475992"/>
+        <c:crossAx val="550716312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1555,6 +1622,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1666,7 +1765,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1675,10 +1774,8 @@
             <c:v>n=10</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1698,6 +1795,40 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="1"/>
+            <c:val val="5.0435000000000008E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>f_hats!$B$1:$H$1</c:f>
@@ -1758,7 +1889,651 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CDF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.95000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.90000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.85000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.80000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.75000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.70000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.65000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.60000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.55000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.50000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.45000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.40000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.35000000000001003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.30000000000000998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.25000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.20000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.15000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.10000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.0000000000010002E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.0214051826551401E-14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9999999999990101E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.9999999999989903E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.24999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.29999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.34999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.39999999999998997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.44999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.49999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.54999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.59999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.69999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.74999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.84999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.89999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.94999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.24999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.3499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.74999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.94999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.99999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.0499999999999798</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.1499999999999799</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.1999999999999802</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.24999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2999999999999798</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.3499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.3999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4499999999999802</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.49999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>6.2096653257761331E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1428107352714144E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1975359245961311E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3867055348385697E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0724110021675811E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2224472655044696E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3903447513498597E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5777607391090503E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7864420562816546E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0182215405704397E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2750131948179191E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5588059521638607E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.87165598160018E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2156774795613713E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5930319112925789E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.00591568638171E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4565462758543041E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9471468033648096E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4799291699557967E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.057075800205898E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6807201268858057E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3529259609648373E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0756659233771053E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8507991437401998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6800484585610316E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10564977366685525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11506967022170828</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12507193563715024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13566606094638264</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14685905637589361</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15865525393145458</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17105612630847924</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18406012534675684</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1976625431226896</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.21185539858339378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.22662735237686521</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.24196365222306987</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25784611080586151</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.27425311775007022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.29115968678834292</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30853753872598338</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.32635522028791641</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34457825838967215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36316934882437713</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.38208857781104355</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.40129367431707241</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42074029056089307</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.44038230762975356</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46017216272296702</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48006119416162357</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49999999999999595</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51993880583836849</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53982783727702499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55961769237023851</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5792597094390991</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.59870632568291993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6179114221889489</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63683065117561533</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65542174161032052</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.67364477971207637</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.69146246127400957</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.70884031321165031</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.72574688224992312</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.74215388919413205</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.75803634777692386</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.77337264762312874</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78814460141660048</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.80233745687730484</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.81593987465323792</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.82894387369151556</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.84134474606854059</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.85314094362410176</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.86433393905361511</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.87492806436284765</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.88493032977828978</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.89435022633314287</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90319951541438803</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.91149200856259638</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.91924334076622749</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.92647074039035027</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.93319279873114069</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.93942924199793987</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.94520070830044089</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.9505285319663509</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.95543453724145599</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.95994084313618122</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.96406968088707268</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.96784322520438493</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.97128344018399693</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.97441194047836022</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.97724986805181968</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.97981778459429458</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.98213557943718255</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.98422239260890865</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.98609655248650063</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.98777552734495466</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.98927588997832361</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99061329446516089</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.9918024640754034</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99285718926472821</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99379033467422351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1768,11 +2543,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="637204096"/>
-        <c:axId val="637206056"/>
+        <c:axId val="558082432"/>
+        <c:axId val="439937480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="637204096"/>
+        <c:axId val="558082432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,12 +2604,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637206056"/>
+        <c:crossAx val="439937480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="637206056"/>
+        <c:axId val="439937480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,7 +2666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637204096"/>
+        <c:crossAx val="558082432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1903,6 +2678,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2014,7 +2821,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2023,10 +2830,8 @@
             <c:v>n=30</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2046,6 +2851,40 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="1"/>
+            <c:val val="6.3600000000000018E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>f_hats!$B$1:$H$1</c:f>
@@ -2106,7 +2945,651 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CDF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.95000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.90000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.85000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.80000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.75000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.70000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.65000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.60000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.55000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.50000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.45000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.40000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.35000000000001003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.30000000000000998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.25000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.20000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.15000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.10000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.0000000000010002E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.0214051826551401E-14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9999999999990101E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.9999999999989903E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.24999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.29999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.34999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.39999999999998997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.44999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.49999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.54999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.59999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.69999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.74999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.84999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.89999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.94999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.24999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.3499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.74999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.94999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.99999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.0499999999999798</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.1499999999999799</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.1999999999999802</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.24999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2999999999999798</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.3499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.3999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4499999999999802</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.49999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>6.2096653257761331E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1428107352714144E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1975359245961311E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3867055348385697E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0724110021675811E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2224472655044696E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3903447513498597E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5777607391090503E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7864420562816546E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0182215405704397E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2750131948179191E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5588059521638607E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.87165598160018E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2156774795613713E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5930319112925789E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.00591568638171E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4565462758543041E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9471468033648096E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4799291699557967E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.057075800205898E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6807201268858057E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3529259609648373E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0756659233771053E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8507991437401998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6800484585610316E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10564977366685525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11506967022170828</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12507193563715024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13566606094638264</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14685905637589361</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15865525393145458</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17105612630847924</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18406012534675684</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1976625431226896</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.21185539858339378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.22662735237686521</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.24196365222306987</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25784611080586151</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.27425311775007022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.29115968678834292</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30853753872598338</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.32635522028791641</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34457825838967215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36316934882437713</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.38208857781104355</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.40129367431707241</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42074029056089307</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.44038230762975356</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46017216272296702</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48006119416162357</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49999999999999595</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51993880583836849</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53982783727702499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55961769237023851</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5792597094390991</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.59870632568291993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6179114221889489</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63683065117561533</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65542174161032052</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.67364477971207637</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.69146246127400957</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.70884031321165031</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.72574688224992312</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.74215388919413205</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.75803634777692386</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.77337264762312874</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78814460141660048</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.80233745687730484</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.81593987465323792</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.82894387369151556</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.84134474606854059</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.85314094362410176</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.86433393905361511</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.87492806436284765</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.88493032977828978</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.89435022633314287</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90319951541438803</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.91149200856259638</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.91924334076622749</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.92647074039035027</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.93319279873114069</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.93942924199793987</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.94520070830044089</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.9505285319663509</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.95543453724145599</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.95994084313618122</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.96406968088707268</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.96784322520438493</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.97128344018399693</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.97441194047836022</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.97724986805181968</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.97981778459429458</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.98213557943718255</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.98422239260890865</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.98609655248650063</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.98777552734495466</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.98927588997832361</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99061329446516089</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.9918024640754034</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99285718926472821</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99379033467422351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2116,11 +3599,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="631333776"/>
-        <c:axId val="631334168"/>
+        <c:axId val="439942184"/>
+        <c:axId val="438007008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="631333776"/>
+        <c:axId val="439942184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,12 +3660,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631334168"/>
+        <c:crossAx val="438007008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="631334168"/>
+        <c:axId val="438007008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2239,7 +3722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631333776"/>
+        <c:crossAx val="439942184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2251,6 +3734,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2362,111 +3877,17 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>n=50</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>f_hats!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>-1.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>f_hats!$B$5:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5.4545454545454501E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.109090909090909</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27272727272727199</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54545454545454497</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83636363636363598</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.92727272727272703</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>n=50</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2486,6 +3907,40 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="1"/>
+            <c:val val="4.9500000000000009E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>f_hats!$B$1:$H$1</c:f>
@@ -2546,7 +4001,651 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CDF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.95000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.90000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.85000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.80000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.75000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.70000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.65000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.60000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.55000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.50000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.45000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.40000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.35000000000001003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.30000000000000998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.25000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.20000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.15000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.10000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.0000000000010002E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.0214051826551401E-14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9999999999990101E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.9999999999989903E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.24999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.29999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.34999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.39999999999998997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.44999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.49999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.54999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.59999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.69999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.74999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.84999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.89999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.94999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.24999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.3499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.74999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.94999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.99999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.0499999999999798</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.1499999999999799</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.1999999999999802</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.24999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2999999999999798</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.3499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.3999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4499999999999802</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.49999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>6.2096653257761331E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1428107352714144E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1975359245961311E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3867055348385697E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0724110021675811E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2224472655044696E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3903447513498597E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5777607391090503E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7864420562816546E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0182215405704397E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2750131948179191E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5588059521638607E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.87165598160018E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2156774795613713E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5930319112925789E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.00591568638171E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4565462758543041E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9471468033648096E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4799291699557967E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.057075800205898E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6807201268858057E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3529259609648373E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0756659233771053E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8507991437401998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6800484585610316E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10564977366685525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11506967022170828</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12507193563715024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13566606094638264</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14685905637589361</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15865525393145458</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17105612630847924</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18406012534675684</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1976625431226896</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.21185539858339378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.22662735237686521</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.24196365222306987</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25784611080586151</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.27425311775007022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.29115968678834292</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30853753872598338</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.32635522028791641</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34457825838967215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36316934882437713</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.38208857781104355</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.40129367431707241</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42074029056089307</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.44038230762975356</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46017216272296702</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48006119416162357</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49999999999999595</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51993880583836849</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53982783727702499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55961769237023851</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5792597094390991</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.59870632568291993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6179114221889489</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63683065117561533</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65542174161032052</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.67364477971207637</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.69146246127400957</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.70884031321165031</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.72574688224992312</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.74215388919413205</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.75803634777692386</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.77337264762312874</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78814460141660048</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.80233745687730484</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.81593987465323792</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.82894387369151556</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.84134474606854059</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.85314094362410176</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.86433393905361511</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.87492806436284765</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.88493032977828978</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.89435022633314287</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90319951541438803</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.91149200856259638</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.91924334076622749</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.92647074039035027</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.93319279873114069</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.93942924199793987</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.94520070830044089</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.9505285319663509</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.95543453724145599</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.95994084313618122</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.96406968088707268</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.96784322520438493</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.97128344018399693</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.97441194047836022</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.97724986805181968</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.97981778459429458</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.98213557943718255</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.98422239260890865</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.98609655248650063</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.98777552734495466</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.98927588997832361</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99061329446516089</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.9918024640754034</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99285718926472821</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99379033467422351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2556,11 +4655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="631332600"/>
-        <c:axId val="631331424"/>
+        <c:axId val="557366040"/>
+        <c:axId val="557366432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="631332600"/>
+        <c:axId val="557366040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2617,12 +4716,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631331424"/>
+        <c:crossAx val="557366432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="631331424"/>
+        <c:axId val="557366432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2679,7 +4778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631332600"/>
+        <c:crossAx val="557366040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2691,6 +4790,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2802,7 +4933,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -2811,10 +4942,8 @@
             <c:v>n=100</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2828,12 +4957,46 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="1"/>
+            <c:val val="9.0000000000000024E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>f_hats!$B$1:$H$1</c:f>
@@ -2894,7 +5057,651 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CDF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.95000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.90000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.85000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.80000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.75000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.70000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.65000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.60000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.55000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.50000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.45000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.40000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.35000000000001003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.30000000000000998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.25000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.20000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.15000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.10000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.0000000000010002E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.0214051826551401E-14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9999999999990101E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.9999999999989903E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.24999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.29999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.34999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.39999999999998997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.44999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.49999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.54999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.59999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.69999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.74999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.84999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.89999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.94999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.24999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.3499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.74999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.94999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.99999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.0499999999999798</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.1499999999999799</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.1999999999999802</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.24999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2999999999999798</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.3499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.3999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4499999999999802</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.49999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>6.2096653257761331E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1428107352714144E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1975359245961311E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3867055348385697E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0724110021675811E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2224472655044696E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3903447513498597E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5777607391090503E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7864420562816546E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0182215405704397E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2750131948179191E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5588059521638607E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.87165598160018E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2156774795613713E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5930319112925789E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.00591568638171E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4565462758543041E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9471468033648096E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4799291699557967E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.057075800205898E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6807201268858057E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3529259609648373E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0756659233771053E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8507991437401998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6800484585610316E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10564977366685525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11506967022170828</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12507193563715024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13566606094638264</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14685905637589361</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15865525393145458</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17105612630847924</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18406012534675684</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1976625431226896</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.21185539858339378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.22662735237686521</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.24196365222306987</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25784611080586151</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.27425311775007022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.29115968678834292</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30853753872598338</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.32635522028791641</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34457825838967215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36316934882437713</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.38208857781104355</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.40129367431707241</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42074029056089307</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.44038230762975356</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46017216272296702</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48006119416162357</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49999999999999595</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51993880583836849</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53982783727702499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55961769237023851</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5792597094390991</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.59870632568291993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6179114221889489</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63683065117561533</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65542174161032052</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.67364477971207637</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.69146246127400957</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.70884031321165031</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.72574688224992312</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.74215388919413205</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.75803634777692386</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.77337264762312874</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78814460141660048</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.80233745687730484</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.81593987465323792</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.82894387369151556</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.84134474606854059</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.85314094362410176</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.86433393905361511</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.87492806436284765</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.88493032977828978</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.89435022633314287</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90319951541438803</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.91149200856259638</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.91924334076622749</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.92647074039035027</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.93319279873114069</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.93942924199793987</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.94520070830044089</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.9505285319663509</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.95543453724145599</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.95994084313618122</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.96406968088707268</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.96784322520438493</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.97128344018399693</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.97441194047836022</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.97724986805181968</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.97981778459429458</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.98213557943718255</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.98422239260890865</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.98609655248650063</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.98777552734495466</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.98927588997832361</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99061329446516089</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.9918024640754034</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99285718926472821</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99379033467422351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2904,11 +5711,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="637202920"/>
-        <c:axId val="637205272"/>
+        <c:axId val="557366824"/>
+        <c:axId val="557363688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="637202920"/>
+        <c:axId val="557366824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,12 +5772,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637205272"/>
+        <c:crossAx val="557363688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="637205272"/>
+        <c:axId val="557363688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3027,7 +5834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637202920"/>
+        <c:crossAx val="557366824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3039,6 +5846,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3150,7 +5989,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3159,10 +5998,8 @@
             <c:v>n=150</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3182,6 +6019,40 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="1"/>
+            <c:val val="9.990000000000003E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>f_hats!$B$1:$H$1</c:f>
@@ -3242,7 +6113,651 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CDF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.95000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.90000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.85000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.80000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.75000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.70000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.65000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.60000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.55000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.50000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.45000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.40000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.35000000000001003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.30000000000000998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.25000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.20000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.15000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.10000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.0000000000010002E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.0214051826551401E-14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9999999999990101E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.9999999999989903E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.24999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.29999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.34999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.39999999999998997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.44999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.49999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.54999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.59999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.69999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.74999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.84999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.89999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.94999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.24999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.3499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.74999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.94999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.99999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.0499999999999798</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.1499999999999799</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.1999999999999802</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.24999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2999999999999798</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.3499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.3999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4499999999999802</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.49999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>6.2096653257761331E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1428107352714144E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1975359245961311E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3867055348385697E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0724110021675811E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2224472655044696E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3903447513498597E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5777607391090503E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7864420562816546E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0182215405704397E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2750131948179191E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5588059521638607E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.87165598160018E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2156774795613713E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5930319112925789E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.00591568638171E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4565462758543041E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9471468033648096E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4799291699557967E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.057075800205898E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6807201268858057E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3529259609648373E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0756659233771053E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8507991437401998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6800484585610316E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10564977366685525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11506967022170828</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12507193563715024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13566606094638264</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14685905637589361</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15865525393145458</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17105612630847924</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18406012534675684</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1976625431226896</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.21185539858339378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.22662735237686521</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.24196365222306987</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25784611080586151</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.27425311775007022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.29115968678834292</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30853753872598338</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.32635522028791641</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34457825838967215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36316934882437713</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.38208857781104355</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.40129367431707241</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42074029056089307</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.44038230762975356</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46017216272296702</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48006119416162357</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49999999999999595</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51993880583836849</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53982783727702499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55961769237023851</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5792597094390991</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.59870632568291993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6179114221889489</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63683065117561533</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65542174161032052</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.67364477971207637</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.69146246127400957</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.70884031321165031</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.72574688224992312</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.74215388919413205</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.75803634777692386</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.77337264762312874</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78814460141660048</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.80233745687730484</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.81593987465323792</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.82894387369151556</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.84134474606854059</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.85314094362410176</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.86433393905361511</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.87492806436284765</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.88493032977828978</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.89435022633314287</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90319951541438803</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.91149200856259638</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.91924334076622749</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.92647074039035027</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.93319279873114069</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.93942924199793987</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.94520070830044089</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.9505285319663509</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.95543453724145599</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.95994084313618122</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.96406968088707268</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.96784322520438493</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.97128344018399693</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.97441194047836022</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.97724986805181968</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.97981778459429458</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.98213557943718255</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.98422239260890865</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.98609655248650063</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.98777552734495466</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.98927588997832361</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99061329446516089</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.9918024640754034</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99285718926472821</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99379033467422351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3252,11 +6767,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="631332208"/>
-        <c:axId val="635916832"/>
+        <c:axId val="557368784"/>
+        <c:axId val="557360160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="631332208"/>
+        <c:axId val="557368784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3313,12 +6828,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635916832"/>
+        <c:crossAx val="557360160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="635916832"/>
+        <c:axId val="557360160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3375,7 +6890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631332208"/>
+        <c:crossAx val="557368784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3387,6 +6902,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3498,7 +7045,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3507,10 +7054,8 @@
             <c:v>n=250</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3530,6 +7075,40 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="1"/>
+            <c:val val="3.6900000000000002E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>f_hats!$B$1:$H$1</c:f>
@@ -3590,7 +7169,651 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CDF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.95000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.90000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.85000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.80000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.75000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.70000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.65000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.60000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.55000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.50000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.45000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.40000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.35000000000001003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.30000000000000998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.25000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.20000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.15000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.10000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.0000000000010002E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.0214051826551401E-14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9999999999990101E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.9999999999989903E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.24999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.29999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.34999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.39999999999998997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.44999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.49999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.54999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.59999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.69999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.74999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.84999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.89999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.94999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.24999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.3499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.74999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.94999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.99999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.0499999999999798</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.1499999999999799</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.1999999999999802</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.24999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2999999999999798</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.3499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.3999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4499999999999802</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.49999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>6.2096653257761331E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1428107352714144E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1975359245961311E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3867055348385697E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0724110021675811E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2224472655044696E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3903447513498597E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5777607391090503E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7864420562816546E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0182215405704397E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2750131948179191E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5588059521638607E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.87165598160018E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2156774795613713E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5930319112925789E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.00591568638171E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4565462758543041E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9471468033648096E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4799291699557967E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.057075800205898E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6807201268858057E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3529259609648373E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0756659233771053E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8507991437401998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6800484585610316E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10564977366685525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11506967022170828</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12507193563715024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13566606094638264</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14685905637589361</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15865525393145458</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17105612630847924</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18406012534675684</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1976625431226896</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.21185539858339378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.22662735237686521</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.24196365222306987</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25784611080586151</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.27425311775007022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.29115968678834292</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30853753872598338</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.32635522028791641</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34457825838967215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36316934882437713</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.38208857781104355</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.40129367431707241</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42074029056089307</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.44038230762975356</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46017216272296702</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48006119416162357</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49999999999999595</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51993880583836849</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53982783727702499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55961769237023851</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5792597094390991</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.59870632568291993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6179114221889489</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63683065117561533</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65542174161032052</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.67364477971207637</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.69146246127400957</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.70884031321165031</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.72574688224992312</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.74215388919413205</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.75803634777692386</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.77337264762312874</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.78814460141660048</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.80233745687730484</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.81593987465323792</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.82894387369151556</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.84134474606854059</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.85314094362410176</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.86433393905361511</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.87492806436284765</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.88493032977828978</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.89435022633314287</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90319951541438803</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.91149200856259638</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.91924334076622749</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.92647074039035027</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.93319279873114069</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.93942924199793987</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.94520070830044089</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.9505285319663509</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.95543453724145599</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.95994084313618122</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.96406968088707268</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.96784322520438493</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.97128344018399693</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.97441194047836022</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.97724986805181968</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.97981778459429458</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.98213557943718255</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.98422239260890865</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.98609655248650063</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.98777552734495466</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.98927588997832361</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99061329446516089</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.9918024640754034</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99285718926472821</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99379033467422351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3600,11 +7823,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="635917224"/>
-        <c:axId val="635917616"/>
+        <c:axId val="557360552"/>
+        <c:axId val="557362120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="635917224"/>
+        <c:axId val="557360552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3661,12 +7884,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635917616"/>
+        <c:crossAx val="557362120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="635917616"/>
+        <c:axId val="557362120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3723,7 +7946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635917224"/>
+        <c:crossAx val="557360552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3735,6 +7958,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3846,7 +8101,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3855,10 +8110,8 @@
             <c:v>n=250</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3878,6 +8131,40 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="1"/>
+            <c:val val="5.4540000000000012E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>f_hats!$B$1:$H$1</c:f>
@@ -3938,7 +8225,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3947,7 +8234,7 @@
             <c:v>CDF</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -4582,7 +8869,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4592,11 +8879,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="635915656"/>
-        <c:axId val="635918400"/>
+        <c:axId val="557364472"/>
+        <c:axId val="557364864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="635915656"/>
+        <c:axId val="557364472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4653,12 +8940,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635918400"/>
+        <c:crossAx val="557364864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="635918400"/>
+        <c:axId val="557364864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4715,7 +9002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635915656"/>
+        <c:crossAx val="557364472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4727,6 +9014,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -9770,8 +14089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10070,9 +14389,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>-1.4</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-0.5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>8.0293865064983393E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.31629278867247E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.8735188546740299E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.3636363636363602E-2</v>
+      </c>
+      <c r="G4">
+        <v>3.5810265998714098E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.1382526658729697E-2</v>
+      </c>
+      <c r="I4">
+        <v>8.0293865064983098E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1.7120295597407399E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.1382526658729801E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.5810265998714098E-2</v>
+      </c>
+      <c r="F5">
+        <v>9.0909090909090298E-3</v>
+      </c>
+      <c r="G5">
+        <v>3.69170067285585E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5.0435655159452003E-2</v>
+      </c>
+      <c r="I5">
+        <v>3.7425158948047099E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1.7120295597407399E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.3200708476911601E-2</v>
+      </c>
+      <c r="E6">
+        <v>9.6442794558312898E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6.3636363636363602E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.6719356907805001E-2</v>
+      </c>
+      <c r="H6">
+        <v>3.1382526658729697E-2</v>
+      </c>
+      <c r="I6">
+        <v>4.4393022870134601E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2.6211204688316499E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.9564344840547898E-2</v>
+      </c>
+      <c r="E7">
+        <v>3.5810265998714098E-2</v>
+      </c>
+      <c r="F7">
+        <v>4.54545454545454E-2</v>
+      </c>
+      <c r="G7">
+        <v>8.5375387259868304E-3</v>
+      </c>
+      <c r="H7">
+        <v>4.9811097049066097E-3</v>
+      </c>
+      <c r="I7">
+        <v>8.0293865064983098E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>8.0293865064983393E-3</v>
+      </c>
+      <c r="D8">
+        <v>4.0473435749638798E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.0355720544168697E-2</v>
+      </c>
+      <c r="F8">
+        <v>6.3636363636363602E-2</v>
+      </c>
+      <c r="G8">
+        <v>6.4189734001285803E-2</v>
+      </c>
+      <c r="H8">
+        <v>6.8617473341270205E-2</v>
+      </c>
+      <c r="I8">
+        <v>7.3788795311683406E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>8.0293865064983393E-3</v>
+      </c>
+      <c r="D9">
+        <v>4.9811097049065603E-3</v>
+      </c>
+      <c r="E9">
+        <v>7.3280643092194897E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.5810265998714098E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.1382526658729697E-2</v>
+      </c>
+      <c r="I9">
+        <v>8.0293865064983098E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1.7120295597407399E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.2253836977633801E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.69170067285585E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.8181818181818101E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.78260976376494E-2</v>
+      </c>
+      <c r="H10">
+        <v>3.2253836977633801E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.8334249857137998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1.01524316753198E-2</v>
+      </c>
+      <c r="D11">
+        <v>2.31629278867247E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.78260976376494E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.4545454545454501E-2</v>
+      </c>
+      <c r="G11">
+        <v>5.39920841805323E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.32007084769115E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.01524316753198E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
